--- a/output/risk/BRN_osm_tc_CMCC-CM2-VHR4_risk.xlsx
+++ b/output/risk/BRN_osm_tc_CMCC-CM2-VHR4_risk.xlsx
@@ -547,67 +547,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.308199929936335e-08</v>
+        <v>0.0002613836608625687</v>
       </c>
       <c r="C2" t="n">
-        <v>1.261639985987267e-07</v>
+        <v>0.0005227673217251374</v>
       </c>
       <c r="D2" t="n">
-        <v>3.154099964968168e-07</v>
+        <v>0.001306918304312844</v>
       </c>
       <c r="E2" t="n">
-        <v>7.853343590049637e-13</v>
+        <v>5.689106774013116e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>1.570668718009927e-12</v>
+        <v>1.137821354802623e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>3.926671795024819e-12</v>
+        <v>2.844553387006558e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>5.915233501568305e-13</v>
+        <v>3.01847205585438e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.183046700313661e-12</v>
+        <v>6.03694411170876e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>2.957616750784153e-12</v>
+        <v>1.50923602792719e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>3.597639316848511e-12</v>
+        <v>8.057042106980676e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>7.195278633697021e-12</v>
+        <v>1.611408421396135e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>1.798819658424256e-11</v>
+        <v>4.028521053490339e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>4.005889426806872e-13</v>
+        <v>1.340734678257388e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.011778853613743e-13</v>
+        <v>2.681469356514775e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.002944713403437e-12</v>
+        <v>6.703673391286938e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>269248.2975980715</v>
+        <v>304112.3102332038</v>
       </c>
       <c r="R2" t="n">
-        <v>538496.5951961429</v>
+        <v>608224.6204664075</v>
       </c>
       <c r="S2" t="n">
-        <v>1346241.487990358</v>
+        <v>1520561.551166019</v>
       </c>
       <c r="T2" t="n">
-        <v>194230.7795752701</v>
+        <v>259701.3663334413</v>
       </c>
       <c r="U2" t="n">
-        <v>388461.5591505402</v>
+        <v>519402.7326668826</v>
       </c>
       <c r="V2" t="n">
-        <v>971153.8978763504</v>
+        <v>1298506.831667206</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +617,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.731149947452252e-08</v>
+        <v>0.0001960377456469266</v>
       </c>
       <c r="C3" t="n">
-        <v>9.462299894904505e-08</v>
+        <v>0.0003920754912938531</v>
       </c>
       <c r="D3" t="n">
-        <v>2.365574973726126e-07</v>
+        <v>0.0009801887282346329</v>
       </c>
       <c r="E3" t="n">
-        <v>5.890007692537229e-13</v>
+        <v>4.266830080509837e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>1.178001538507446e-12</v>
+        <v>8.533660161019674e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.945003846268614e-12</v>
+        <v>2.133415040254918e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>4.436425126176229e-13</v>
+        <v>2.263854041890785e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>8.872850252352458e-13</v>
+        <v>4.527708083781571e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>2.218212563088114e-12</v>
+        <v>1.131927020945392e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>2.698229487636384e-12</v>
+        <v>6.042781580235506e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>5.396458975272768e-12</v>
+        <v>1.208556316047101e-07</v>
       </c>
       <c r="M3" t="n">
-        <v>1.349114743818192e-11</v>
+        <v>3.021390790117753e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.004417070105154e-13</v>
+        <v>1.005551008693041e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>6.008834140210308e-13</v>
+        <v>2.011102017386082e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.502208535052577e-12</v>
+        <v>5.027755043465204e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>201936.2231985536</v>
+        <v>228084.2326749029</v>
       </c>
       <c r="R3" t="n">
-        <v>403872.4463971073</v>
+        <v>456168.4653498058</v>
       </c>
       <c r="S3" t="n">
-        <v>1009681.115992768</v>
+        <v>1140421.163374514</v>
       </c>
       <c r="T3" t="n">
-        <v>145673.0846814526</v>
+        <v>194776.024750081</v>
       </c>
       <c r="U3" t="n">
-        <v>291346.1693629051</v>
+        <v>389552.049500162</v>
       </c>
       <c r="V3" t="n">
-        <v>728365.4234072629</v>
+        <v>973880.1237504049</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +687,67 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.885249912420421e-08</v>
+        <v>0.000326729576078211</v>
       </c>
       <c r="C4" t="n">
-        <v>1.577049982484084e-07</v>
+        <v>0.0006534591521564219</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94262495621021e-07</v>
+        <v>0.001633647880391055</v>
       </c>
       <c r="E4" t="n">
-        <v>9.816679487562047e-13</v>
+        <v>7.111383467516394e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>1.963335897512409e-12</v>
+        <v>1.422276693503279e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.908339743781024e-12</v>
+        <v>3.555691733758197e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>7.394041876960383e-13</v>
+        <v>3.773090069817975e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>1.478808375392077e-12</v>
+        <v>7.546180139635951e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>3.697020938480192e-12</v>
+        <v>1.886545034908988e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>4.49704914606064e-12</v>
+        <v>1.007130263372585e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>8.994098292121279e-12</v>
+        <v>2.014260526745169e-07</v>
       </c>
       <c r="M4" t="n">
-        <v>2.24852457303032e-11</v>
+        <v>5.035651316862923e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>5.007361783508591e-13</v>
+        <v>1.675918347821735e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>1.001472356701718e-12</v>
+        <v>3.351836695643469e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.503680891754295e-12</v>
+        <v>8.379591739108671e-08</v>
       </c>
       <c r="Q4" t="n">
-        <v>336560.3719975894</v>
+        <v>380140.3877915048</v>
       </c>
       <c r="R4" t="n">
-        <v>673120.7439951788</v>
+        <v>760280.7755830096</v>
       </c>
       <c r="S4" t="n">
-        <v>1682801.859987947</v>
+        <v>1900701.938957524</v>
       </c>
       <c r="T4" t="n">
-        <v>242788.4744690876</v>
+        <v>324626.7079168016</v>
       </c>
       <c r="U4" t="n">
-        <v>485576.9489381752</v>
+        <v>649253.4158336031</v>
       </c>
       <c r="V4" t="n">
-        <v>1213942.372345438</v>
+        <v>1623133.539584009</v>
       </c>
     </row>
   </sheetData>

--- a/output/risk/BRN_osm_tc_CMCC-CM2-VHR4_risk.xlsx
+++ b/output/risk/BRN_osm_tc_CMCC-CM2-VHR4_risk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,92 +451,197 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>W2_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W2_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>W2_2_1</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>W2_2_2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>W2_2_3</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_4</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_5</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W2_2_6</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>W2_3_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>W2_3_2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>W2_3_3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W2_3_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>W2_4_1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>W2_4_2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>W2_4_3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_4</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W2_4_6</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W2_5_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W2_5_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W2_5_3</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W2_5_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>W2_6_1</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>W2_6_2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>W2_6_3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_5</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W2_6_6</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W2_7_1</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>W2_7_2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>W2_7_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W2_7_6</t>
         </is>
       </c>
     </row>
@@ -547,67 +652,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002613836608625687</v>
+        <v>306119.530398341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005227673217251374</v>
+        <v>189113.843223864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001306918304312844</v>
+        <v>102039.8434661137</v>
       </c>
       <c r="E2" t="n">
-        <v>5.689106774013116e-08</v>
+        <v>64285.10138365164</v>
       </c>
       <c r="F2" t="n">
-        <v>1.137821354802623e-07</v>
+        <v>54081.11703704025</v>
       </c>
       <c r="G2" t="n">
-        <v>2.844553387006558e-07</v>
+        <v>36394.21083624721</v>
       </c>
       <c r="H2" t="n">
-        <v>3.01847205585438e-08</v>
+        <v>236290.9778408207</v>
       </c>
       <c r="I2" t="n">
-        <v>6.03694411170876e-08</v>
+        <v>145975.3151994403</v>
       </c>
       <c r="J2" t="n">
-        <v>1.50923602792719e-07</v>
+        <v>78763.65928027357</v>
       </c>
       <c r="K2" t="n">
-        <v>8.057042106980676e-08</v>
+        <v>49621.10534657235</v>
       </c>
       <c r="L2" t="n">
-        <v>1.611408421396135e-07</v>
+        <v>41744.73941854499</v>
       </c>
       <c r="M2" t="n">
-        <v>4.028521053490339e-07</v>
+        <v>28092.37180996424</v>
       </c>
       <c r="N2" t="n">
-        <v>1.340734678257388e-08</v>
+        <v>160364.6144937814</v>
       </c>
       <c r="O2" t="n">
-        <v>2.681469356514775e-08</v>
+        <v>99069.69517615832</v>
       </c>
       <c r="P2" t="n">
-        <v>6.703673391286938e-08</v>
+        <v>53454.87149792717</v>
       </c>
       <c r="Q2" t="n">
-        <v>304112.3102332038</v>
+        <v>33676.56904369411</v>
       </c>
       <c r="R2" t="n">
-        <v>608224.6204664075</v>
+        <v>28331.08189390139</v>
       </c>
       <c r="S2" t="n">
-        <v>1520561.551166019</v>
+        <v>19065.57083426068</v>
       </c>
       <c r="T2" t="n">
-        <v>259701.3663334413</v>
+        <v>109534.1581113724</v>
       </c>
       <c r="U2" t="n">
-        <v>519402.7326668826</v>
+        <v>67667.7687888034</v>
       </c>
       <c r="V2" t="n">
-        <v>1298506.831667206</v>
+        <v>36511.38603712413</v>
+      </c>
+      <c r="W2" t="n">
+        <v>23002.1732033882</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19351.03459967579</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13022.39435324094</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>88705.22876537789</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>54800.11910394457</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29568.4095884593</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>18628.09804072936</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>15671.25708188343</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10546.06608655048</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>258318.9421109496</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>159583.7020152088</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>86106.31403698321</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>54246.97784329944</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>45636.3464396011</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>30711.25200652401</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>111450.5660570759</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>68851.68303081577</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>37150.18868569196</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23404.61887198594</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>19689.60000341674</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>13250.23396456347</v>
       </c>
     </row>
     <row r="3">
@@ -617,67 +785,130 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001960377456469266</v>
+        <v>229589.6477987558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003920754912938531</v>
+        <v>141835.382417898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009801887282346329</v>
+        <v>76529.88259958525</v>
       </c>
       <c r="E3" t="n">
-        <v>4.266830080509837e-08</v>
+        <v>48213.82603773872</v>
       </c>
       <c r="F3" t="n">
-        <v>8.533660161019674e-08</v>
+        <v>40560.83777778019</v>
       </c>
       <c r="G3" t="n">
-        <v>2.133415040254918e-07</v>
+        <v>27295.65812718541</v>
       </c>
       <c r="H3" t="n">
-        <v>2.263854041890785e-08</v>
+        <v>177218.2333806155</v>
       </c>
       <c r="I3" t="n">
-        <v>4.527708083781571e-08</v>
+        <v>109481.4863995802</v>
       </c>
       <c r="J3" t="n">
-        <v>1.131927020945392e-07</v>
+        <v>59072.74446020518</v>
       </c>
       <c r="K3" t="n">
-        <v>6.042781580235506e-08</v>
+        <v>37215.82900992926</v>
       </c>
       <c r="L3" t="n">
-        <v>1.208556316047101e-07</v>
+        <v>31308.55456390875</v>
       </c>
       <c r="M3" t="n">
-        <v>3.021390790117753e-07</v>
+        <v>21069.27885747317</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005551008693041e-08</v>
+        <v>120273.4608703361</v>
       </c>
       <c r="O3" t="n">
-        <v>2.011102017386082e-08</v>
+        <v>74302.27138211875</v>
       </c>
       <c r="P3" t="n">
-        <v>5.027755043465204e-08</v>
+        <v>40091.15362344536</v>
       </c>
       <c r="Q3" t="n">
-        <v>228084.2326749029</v>
+        <v>25257.42678277058</v>
       </c>
       <c r="R3" t="n">
-        <v>456168.4653498058</v>
+        <v>21248.31142042605</v>
       </c>
       <c r="S3" t="n">
-        <v>1140421.163374514</v>
+        <v>14299.17812569551</v>
       </c>
       <c r="T3" t="n">
-        <v>194776.024750081</v>
+        <v>82150.61858352929</v>
       </c>
       <c r="U3" t="n">
-        <v>389552.049500162</v>
+        <v>50750.82659160254</v>
       </c>
       <c r="V3" t="n">
-        <v>973880.1237504049</v>
+        <v>27383.5395278431</v>
+      </c>
+      <c r="W3" t="n">
+        <v>17251.62990254115</v>
+      </c>
+      <c r="X3" t="n">
+        <v>14513.27594975684</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9766.795764930705</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>66528.92157403342</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>41100.08932795843</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22176.30719134447</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13971.07353054702</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11753.44281141257</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7909.549564912862</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>193739.2065832122</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>119687.7765114067</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>64579.73552773741</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40685.23338247457</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>34227.25982970083</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>23033.43900489301</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>83587.92454280691</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51638.76227311182</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>27862.64151426897</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17553.46415398945</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>14767.20000256255</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>9937.6754734226</v>
       </c>
     </row>
     <row r="4">
@@ -687,67 +918,130 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000326729576078211</v>
+        <v>382649.4129979264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006534591521564219</v>
+        <v>236392.30402983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001633647880391055</v>
+        <v>127549.8043326421</v>
       </c>
       <c r="E4" t="n">
-        <v>7.111383467516394e-08</v>
+        <v>80356.37672956452</v>
       </c>
       <c r="F4" t="n">
-        <v>1.422276693503279e-07</v>
+        <v>67601.39629630031</v>
       </c>
       <c r="G4" t="n">
-        <v>3.555691733758197e-07</v>
+        <v>45492.76354530902</v>
       </c>
       <c r="H4" t="n">
-        <v>3.773090069817975e-08</v>
+        <v>295363.7223010259</v>
       </c>
       <c r="I4" t="n">
-        <v>7.546180139635951e-08</v>
+        <v>182469.1439993004</v>
       </c>
       <c r="J4" t="n">
-        <v>1.886545034908988e-07</v>
+        <v>98454.57410034197</v>
       </c>
       <c r="K4" t="n">
-        <v>1.007130263372585e-07</v>
+        <v>62026.38168321544</v>
       </c>
       <c r="L4" t="n">
-        <v>2.014260526745169e-07</v>
+        <v>52180.92427318123</v>
       </c>
       <c r="M4" t="n">
-        <v>5.035651316862923e-07</v>
+        <v>35115.4647624553</v>
       </c>
       <c r="N4" t="n">
-        <v>1.675918347821735e-08</v>
+        <v>200455.7681172268</v>
       </c>
       <c r="O4" t="n">
-        <v>3.351836695643469e-08</v>
+        <v>123837.1189701979</v>
       </c>
       <c r="P4" t="n">
-        <v>8.379591739108671e-08</v>
+        <v>66818.58937240895</v>
       </c>
       <c r="Q4" t="n">
-        <v>380140.3877915048</v>
+        <v>42095.71130461763</v>
       </c>
       <c r="R4" t="n">
-        <v>760280.7755830096</v>
+        <v>35413.85236737674</v>
       </c>
       <c r="S4" t="n">
-        <v>1900701.938957524</v>
+        <v>23831.96354282586</v>
       </c>
       <c r="T4" t="n">
-        <v>324626.7079168016</v>
+        <v>136917.6976392155</v>
       </c>
       <c r="U4" t="n">
-        <v>649253.4158336031</v>
+        <v>84584.71098600423</v>
       </c>
       <c r="V4" t="n">
-        <v>1623133.539584009</v>
+        <v>45639.23254640518</v>
+      </c>
+      <c r="W4" t="n">
+        <v>28752.71650423525</v>
+      </c>
+      <c r="X4" t="n">
+        <v>24188.79324959474</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16277.99294155117</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>110881.5359567224</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>68500.14887993071</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>36960.51198557412</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>23285.1225509117</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>19589.07135235428</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13182.5826081881</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>322898.6776386871</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>199479.6275190111</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>107632.892546229</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>67808.72230412428</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>57045.43304950137</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>38389.065008155</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>139313.2075713449</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>86064.60378851971</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>46437.73585711495</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>29255.77358998242</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>24612.00000427092</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>16562.79245570433</v>
       </c>
     </row>
   </sheetData>
